--- a/result_graphs/npb-benchmark-total-t4-linux.xlsx
+++ b/result_graphs/npb-benchmark-total-t4-linux.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itomaldonado/git/multiprocessor-benchmarking-exploration/Graphed Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itomaldonado/git/multiprocessor-benchmarking-exploration/result_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="npb-benchmark-total-output" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -767,11 +767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2054259712"/>
-        <c:axId val="-1187939392"/>
+        <c:axId val="2127533280"/>
+        <c:axId val="2127536896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2054259712"/>
+        <c:axId val="2127533280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187939392"/>
+        <c:crossAx val="2127536896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187939392"/>
+        <c:axId val="2127536896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2054259712"/>
+        <c:crossAx val="2127533280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,11 +1483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122470208"/>
-        <c:axId val="-2051275712"/>
+        <c:axId val="2127194544"/>
+        <c:axId val="2127198160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122470208"/>
+        <c:axId val="2127194544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051275712"/>
+        <c:crossAx val="2127198160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2051275712"/>
+        <c:axId val="2127198160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122470208"/>
+        <c:crossAx val="2127194544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,11 +2222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109610288"/>
-        <c:axId val="-1027101968"/>
+        <c:axId val="-2137041216"/>
+        <c:axId val="-2137037600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109610288"/>
+        <c:axId val="-2137041216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1027101968"/>
+        <c:crossAx val="-2137037600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1027101968"/>
+        <c:axId val="-2137037600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,7 +2356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109610288"/>
+        <c:crossAx val="-2137041216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2681,14 +2681,14 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart-Data'!$H$43:$I$43</c:f>
+              <c:f>'Chart-Data'!$H$42:$I$42</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>MG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2739,7 +2739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart-Data'!$J$43:$M$43</c:f>
+              <c:f>'Chart-Data'!$J$42:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2747,13 +2747,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2</c:v>
+                  <c:v>1.177752288576525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2</c:v>
+                  <c:v>1.1615417370995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2</c:v>
+                  <c:v>1.162757052805621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,14 +2765,14 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart-Data'!$H$44:$I$44</c:f>
+              <c:f>'Chart-Data'!$H$43:$I$43</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>MG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2823,7 +2823,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart-Data'!$J$44:$M$44</c:f>
+              <c:f>'Chart-Data'!$J$43:$M$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2831,13 +2831,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.410472972972973</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.444636678200692</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.434707903780069</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2849,14 +2849,14 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart-Data'!$H$42:$I$42</c:f>
+              <c:f>'Chart-Data'!$H$44:$I$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>MG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C</c:v>
+                  <c:v>W</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2907,7 +2907,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart-Data'!$J$42:$M$42</c:f>
+              <c:f>'Chart-Data'!$J$44:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2915,13 +2915,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.177752288576525</c:v>
+                  <c:v>1.410472972972973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1615417370995</c:v>
+                  <c:v>1.444636678200692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.162757052805621</c:v>
+                  <c:v>1.434707903780069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,11 +2938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2084875024"/>
-        <c:axId val="-2035503664"/>
+        <c:axId val="-2137226704"/>
+        <c:axId val="-2137223088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2084875024"/>
+        <c:axId val="-2137226704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,7 +3013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035503664"/>
+        <c:crossAx val="-2137223088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3021,7 +3021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2035503664"/>
+        <c:axId val="-2137223088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,7 +3072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084875024"/>
+        <c:crossAx val="-2137226704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3654,11 +3654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2050044928"/>
-        <c:axId val="-2130393088"/>
+        <c:axId val="2127069872"/>
+        <c:axId val="2127073488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2050044928"/>
+        <c:axId val="2127069872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,7 +3729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130393088"/>
+        <c:crossAx val="2127073488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3737,7 +3737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130393088"/>
+        <c:axId val="2127073488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050044928"/>
+        <c:crossAx val="2127069872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4388,11 +4388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2050973440"/>
-        <c:axId val="-2037675488"/>
+        <c:axId val="2126991488"/>
+        <c:axId val="2126995104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2050973440"/>
+        <c:axId val="2126991488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037675488"/>
+        <c:crossAx val="2126995104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4471,7 +4471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2037675488"/>
+        <c:axId val="2126995104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4522,7 +4522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050973440"/>
+        <c:crossAx val="2126991488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,11 +5104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2039042032"/>
-        <c:axId val="-2050924864"/>
+        <c:axId val="-2137350848"/>
+        <c:axId val="-2137347232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2039042032"/>
+        <c:axId val="-2137350848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5179,7 +5179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050924864"/>
+        <c:crossAx val="-2137347232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5187,7 +5187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2050924864"/>
+        <c:axId val="-2137347232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5238,7 +5238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039042032"/>
+        <c:crossAx val="-2137350848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5820,11 +5820,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-922998944"/>
-        <c:axId val="-2040340528"/>
+        <c:axId val="2126948064"/>
+        <c:axId val="2126935344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-922998944"/>
+        <c:axId val="2126948064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5895,7 +5895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040340528"/>
+        <c:crossAx val="2126935344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5903,7 +5903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040340528"/>
+        <c:axId val="2126935344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,7 +5954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-922998944"/>
+        <c:crossAx val="2126948064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10455,7 +10455,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16331,7 +16331,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:F52" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -31381,8 +31381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/result_graphs/npb-benchmark-total-t4-linux.xlsx
+++ b/result_graphs/npb-benchmark-total-t4-linux.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="npb-benchmark-total-output" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="29" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -767,11 +767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127533280"/>
-        <c:axId val="2127536896"/>
+        <c:axId val="-2122686896"/>
+        <c:axId val="-2122753408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127533280"/>
+        <c:axId val="-2122686896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127536896"/>
+        <c:crossAx val="-2122753408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127536896"/>
+        <c:axId val="-2122753408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127533280"/>
+        <c:crossAx val="-2122686896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1017,7 +1017,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1483,11 +1482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127194544"/>
-        <c:axId val="2127198160"/>
+        <c:axId val="-2122788720"/>
+        <c:axId val="-2122831072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127194544"/>
+        <c:axId val="-2122788720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127198160"/>
+        <c:crossAx val="-2122831072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127198160"/>
+        <c:axId val="-2122831072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127194544"/>
+        <c:crossAx val="-2122788720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1654,7 +1653,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1756,7 +1754,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2222,11 +2219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137041216"/>
-        <c:axId val="-2137037600"/>
+        <c:axId val="-2113314736"/>
+        <c:axId val="-2053310640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137041216"/>
+        <c:axId val="-2113314736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137037600"/>
+        <c:crossAx val="-2053310640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137037600"/>
+        <c:axId val="-2053310640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,7 +2353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137041216"/>
+        <c:crossAx val="-2113314736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2370,7 +2367,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2472,7 +2468,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2938,11 +2933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137226704"/>
-        <c:axId val="-2137223088"/>
+        <c:axId val="2077406640"/>
+        <c:axId val="1822493392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137226704"/>
+        <c:axId val="2077406640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,7 +3008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137223088"/>
+        <c:crossAx val="1822493392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3021,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137223088"/>
+        <c:axId val="1822493392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,7 +3067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137226704"/>
+        <c:crossAx val="2077406640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,7 +3081,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3188,7 +3182,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3654,11 +3647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127069872"/>
-        <c:axId val="2127073488"/>
+        <c:axId val="-2055083312"/>
+        <c:axId val="-2110657168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127069872"/>
+        <c:axId val="-2055083312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,7 +3722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127073488"/>
+        <c:crossAx val="-2110657168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3737,7 +3730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127073488"/>
+        <c:axId val="-2110657168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127069872"/>
+        <c:crossAx val="-2055083312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3802,7 +3795,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3912,7 +3904,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4388,11 +4379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126991488"/>
-        <c:axId val="2126995104"/>
+        <c:axId val="-2107121216"/>
+        <c:axId val="-2050108672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126991488"/>
+        <c:axId val="-2107121216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126995104"/>
+        <c:crossAx val="-2050108672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4471,7 +4462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126995104"/>
+        <c:axId val="-2050108672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4522,7 +4513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126991488"/>
+        <c:crossAx val="-2107121216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4536,7 +4527,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4638,7 +4628,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5104,11 +5093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137350848"/>
-        <c:axId val="-2137347232"/>
+        <c:axId val="-2106962256"/>
+        <c:axId val="2110949296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137350848"/>
+        <c:axId val="-2106962256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5179,7 +5168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137347232"/>
+        <c:crossAx val="2110949296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5187,7 +5176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137347232"/>
+        <c:axId val="2110949296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5238,7 +5227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137350848"/>
+        <c:crossAx val="-2106962256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5252,7 +5241,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5354,7 +5342,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5820,11 +5807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126948064"/>
-        <c:axId val="2126935344"/>
+        <c:axId val="-2052897504"/>
+        <c:axId val="-2054388448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126948064"/>
+        <c:axId val="-2052897504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5895,7 +5882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126935344"/>
+        <c:crossAx val="-2054388448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5903,7 +5890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126935344"/>
+        <c:axId val="-2054388448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,7 +5941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126948064"/>
+        <c:crossAx val="-2052897504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5968,7 +5955,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16331,7 +16317,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:F52" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -16841,9 +16827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E800"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -31381,7 +31365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>

--- a/result_graphs/npb-benchmark-total-t4-linux.xlsx
+++ b/result_graphs/npb-benchmark-total-t4-linux.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="npb-benchmark-total-output" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="21">
   <si>
     <t>program</t>
   </si>
@@ -104,18 +104,6 @@
   </si>
   <si>
     <t>SpeedUp</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
   </si>
 </sst>
 </file>
@@ -282,7 +270,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -296,7 +284,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>IS-Program Average Per Class</a:t>
+              <a:t>IS-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -315,7 +303,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -334,8 +322,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -355,48 +344,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -419,7 +395,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -439,48 +414,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -503,7 +465,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -523,48 +484,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -587,7 +535,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -607,48 +554,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -671,7 +605,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -691,48 +624,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -755,7 +675,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -765,13 +684,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2122686896"/>
-        <c:axId val="-2122753408"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2086481680"/>
+        <c:axId val="-2086262176"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2122686896"/>
+        <c:axId val="-2086481680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,6 +723,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -827,7 +801,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -842,7 +816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122753408"/>
+        <c:crossAx val="-2086262176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,9 +824,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122753408"/>
+        <c:axId val="-2086262176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -870,6 +845,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -886,7 +917,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -901,7 +932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122686896"/>
+        <c:crossAx val="-2086481680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -929,7 +960,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -969,7 +1000,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -998,7 +1029,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1012,11 +1043,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>EP-Program Average Per Class</a:t>
+              <a:t>EP-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1030,7 +1062,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1049,8 +1081,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1070,48 +1103,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1134,7 +1154,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1154,48 +1173,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1218,7 +1224,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1238,48 +1243,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1302,7 +1294,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1322,48 +1313,37 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1386,7 +1366,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1406,48 +1385,37 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1470,7 +1438,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1480,13 +1447,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2122788720"/>
-        <c:axId val="-2122831072"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2080957984"/>
+        <c:axId val="-2144926688"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2122788720"/>
+        <c:axId val="-2080957984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,6 +1486,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1542,7 +1564,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1557,7 +1579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122831072"/>
+        <c:crossAx val="-2144926688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +1587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122831072"/>
+        <c:axId val="-2144926688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,6 +1607,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1601,7 +1679,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1616,7 +1694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122788720"/>
+        <c:crossAx val="-2080957984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,7 +1715,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1653,6 +1731,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1666,7 +1745,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1706,7 +1785,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1735,7 +1814,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1749,11 +1828,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CG-Program Average Per Class</a:t>
+              <a:t>CG-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1767,7 +1847,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1786,8 +1866,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1807,48 +1888,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1871,7 +1939,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1891,48 +1958,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1955,7 +2009,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1975,48 +2028,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2039,7 +2079,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2059,48 +2098,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2123,7 +2149,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2143,48 +2168,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2207,7 +2219,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2217,13 +2228,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2113314736"/>
-        <c:axId val="-2053310640"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2112542608"/>
+        <c:axId val="-2147380944"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2113314736"/>
+        <c:axId val="-2112542608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,6 +2267,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2279,7 +2345,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2294,7 +2360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053310640"/>
+        <c:crossAx val="-2147380944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,9 +2368,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2053310640"/>
+        <c:axId val="-2147380944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2322,6 +2389,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2338,7 +2461,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2353,7 +2476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113314736"/>
+        <c:crossAx val="-2112542608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2367,6 +2490,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2380,7 +2504,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2420,7 +2544,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2449,7 +2573,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2463,11 +2587,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MG-Program Average Per Class</a:t>
+              <a:t>MG-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2481,7 +2606,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2500,8 +2625,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2521,48 +2647,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2585,7 +2698,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2605,48 +2717,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2669,7 +2768,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2689,48 +2787,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2753,7 +2838,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2773,48 +2857,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2837,7 +2908,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2857,48 +2927,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2921,7 +2978,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2931,13 +2987,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2077406640"/>
-        <c:axId val="1822493392"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2112803040"/>
+        <c:axId val="2124443136"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2077406640"/>
+        <c:axId val="-2112803040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,6 +3026,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2993,7 +3104,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3008,7 +3119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1822493392"/>
+        <c:crossAx val="2124443136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,9 +3127,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1822493392"/>
+        <c:axId val="2124443136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3036,6 +3148,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3052,7 +3220,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3067,7 +3235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077406640"/>
+        <c:crossAx val="-2112803040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,6 +3249,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3094,7 +3263,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3134,7 +3303,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3163,7 +3332,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3177,11 +3346,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FT-Program Average Per Class</a:t>
+              <a:t>FT-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3195,7 +3365,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3214,8 +3384,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3235,48 +3406,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3299,7 +3457,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3319,48 +3476,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3383,7 +3527,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3403,48 +3546,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3467,7 +3597,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3487,48 +3616,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3551,7 +3667,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3571,48 +3686,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3635,7 +3737,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3645,13 +3746,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2055083312"/>
-        <c:axId val="-2110657168"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2114888096"/>
+        <c:axId val="-2082665008"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2055083312"/>
+        <c:axId val="-2114888096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,6 +3785,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3707,7 +3863,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3722,7 +3878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110657168"/>
+        <c:crossAx val="-2082665008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3730,9 +3886,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110657168"/>
+        <c:axId val="-2082665008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3750,6 +3907,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3766,7 +3979,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3781,7 +3994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055083312"/>
+        <c:crossAx val="-2114888096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3795,6 +4008,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3808,7 +4022,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3848,7 +4062,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3877,7 +4091,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3891,19 +4105,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BT-Program</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> A</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>verage Per Class</a:t>
+              <a:t>BT-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3917,7 +4124,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3946,8 +4153,9 @@
           <c:h val="0.748867436091036"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3967,48 +4175,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4031,7 +4226,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4051,48 +4245,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4115,7 +4296,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4135,48 +4315,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4199,7 +4366,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4219,48 +4385,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4283,7 +4436,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4303,48 +4455,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4367,7 +4506,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4377,13 +4515,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2107121216"/>
-        <c:axId val="-2050108672"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2082895840"/>
+        <c:axId val="-2085427008"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2107121216"/>
+        <c:axId val="-2082895840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,6 +4554,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4439,7 +4632,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4454,7 +4647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050108672"/>
+        <c:crossAx val="-2085427008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4462,9 +4655,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2050108672"/>
+        <c:axId val="-2085427008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4482,6 +4676,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4498,7 +4748,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4513,7 +4763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107121216"/>
+        <c:crossAx val="-2082895840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4527,6 +4777,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4540,7 +4791,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4580,7 +4831,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4609,7 +4860,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4623,11 +4874,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SP-Program Average Per Class</a:t>
+              <a:t>SP-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4641,7 +4893,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4660,8 +4912,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4681,48 +4934,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4745,7 +4985,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4765,48 +5004,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4829,7 +5055,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4849,48 +5074,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4913,7 +5125,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4933,48 +5144,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4997,7 +5195,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5017,48 +5214,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5081,7 +5265,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5091,13 +5274,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2106962256"/>
-        <c:axId val="2110949296"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2143418048"/>
+        <c:axId val="-2107079952"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2106962256"/>
+        <c:axId val="-2143418048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5131,6 +5313,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5153,7 +5391,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5168,7 +5406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110949296"/>
+        <c:crossAx val="-2107079952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5176,9 +5414,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110949296"/>
+        <c:axId val="-2107079952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5196,6 +5435,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5212,7 +5507,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5227,7 +5522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106962256"/>
+        <c:crossAx val="-2143418048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5241,6 +5536,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5254,7 +5550,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5294,7 +5590,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5323,7 +5619,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5337,11 +5633,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LU-Program Average Per Class</a:t>
+              <a:t>LU-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5355,7 +5652,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5374,8 +5671,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5395,48 +5693,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5459,7 +5744,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5479,48 +5763,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5543,7 +5814,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5563,48 +5833,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5627,7 +5884,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5647,48 +5903,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5711,7 +5954,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5731,48 +5973,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$J$2:$M$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5795,7 +6024,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5805,13 +6033,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2052897504"/>
-        <c:axId val="-2054388448"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2082089392"/>
+        <c:axId val="-2084791040"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2052897504"/>
+        <c:axId val="-2082089392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,6 +6072,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5867,7 +6150,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5882,7 +6165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2054388448"/>
+        <c:crossAx val="-2084791040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5890,9 +6173,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2054388448"/>
+        <c:axId val="-2084791040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5910,6 +6194,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5926,7 +6266,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5941,7 +6281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052897504"/>
+        <c:crossAx val="-2082089392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5955,6 +6295,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5968,7 +6309,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6008,7 +6349,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -10441,7 +10782,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16317,7 +16658,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:F52" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -16827,7 +17168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E800"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A65" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -30442,7 +30783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F52"/>
     </sheetView>
   </sheetViews>
@@ -31366,7 +31707,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31414,17 +31755,17 @@
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>24</v>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>3</v>
+      </c>
+      <c r="M2" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
